--- a/biology/Zoologie/Excelsotarsonemus/Excelsotarsonemus.xlsx
+++ b/biology/Zoologie/Excelsotarsonemus/Excelsotarsonemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelsotarsonemus est un genre d'acariens de la famille des Tarsonemidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelsotarsonemus est un genre d'acariens de la famille des Tarsonemidae.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 février 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 février 2023) :
 Excelsotarsonemus caravelis
-Selon GBIF       (14 février 2023)[3] :
+Selon GBIF       (14 février 2023) :
 Excelsotarsonemus caravelis Rezende, Lofego, Ochoa &amp; Bauchan, 2015
 Excelsotarsonemus tupi Rezende, Lofego, Ochoa &amp; Bauchan, 2015
-Selon IRMNG  (14 février 2023)[4] :
+Selon IRMNG  (14 février 2023) :
 Excelsotarsonemus kaliszewskii Ochoa, Naskrecki &amp; Colwell, 1995 (espèce type)
 Excelsotarsonemus kimhansenae
 Excelsotarsonemus mariposa</t>
@@ -549,7 +563,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Ronald Ochoa, Piotr Naskrecki et Robert K. Colwell, « Excelsotarsonemus kaliszewskii, a new genus and new species from Costa Rica (Acari: Tarsonemidae) », International Journal of Acarology, Taylor &amp; Francis, vol. 21, no 2,‎ juin 1995, p. 67-74 (ISSN 0164-7954 et 1945-3892, OCLC 03357196, DOI 10.1080/01647959508684045)</t>
         </is>
